--- a/docs/designs/addins/addins_v01.xlsx
+++ b/docs/designs/addins/addins_v01.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Processes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>Addins.js</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>History for current folder</t>
+  </si>
+  <si>
+    <t>Collecting input</t>
+  </si>
+  <si>
+    <t>Running a process and collect information and saves into a json time series structure</t>
   </si>
 </sst>
 </file>
@@ -982,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M41"/>
+  <dimension ref="A3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1426,12 +1432,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>22</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
